--- a/biology/Médecine/Hôpital_universitaire_de_Korle-Bu/Hôpital_universitaire_de_Korle-Bu.xlsx
+++ b/biology/Médecine/Hôpital_universitaire_de_Korle-Bu/Hôpital_universitaire_de_Korle-Bu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_Korle-Bu</t>
+          <t>Hôpital_universitaire_de_Korle-Bu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital universitaire de Korle-Bu (KBTH) est un hôpital universitaire public situé dans le district métropolitain d'Ablekuma Sud à Accra au Ghana.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_Korle-Bu</t>
+          <t>Hôpital_universitaire_de_Korle-Bu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé le 9 octobre 1923, l'hôpital universitaire de Korle-Bu est passé d'une capacité initiale de 200 lits à 2 000. C'est actuellement le troisième plus grand hôpital d'Afrique et le premier centre national de référence au Ghana.
 Korle-Bu, qui signifie la vallée de la lagune de Korle, a été créé en tant qu'hôpital général pour répondre aux besoins de santé des peuples autochtones sous l'administration de Sir Gordon Guggisberg, alors gouverneur de la Gold Coast.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_Korle-Bu</t>
+          <t>Hôpital_universitaire_de_Korle-Bu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KBTH est seul hôpital tertiaire public du sud du pays[1],[2]. C'est un hôpital universitaire affilié à la faculté de médecine de l'université du Ghana. Il possède trois centres d'excellence, le Centre national cardiothoracique, le Centre national de chirurgie plastique et reconstructrice et les Centres de radiothérapie en font partie. En 2019, l'hôpital a obtenu une licence de l'Agence de réglementation des établissements de santé (HeFRA), après avoir satisfait à l'exigence[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KBTH est seul hôpital tertiaire public du sud du pays,. C'est un hôpital universitaire affilié à la faculté de médecine de l'université du Ghana. Il possède trois centres d'excellence, le Centre national cardiothoracique, le Centre national de chirurgie plastique et reconstructrice et les Centres de radiothérapie en font partie. En 2019, l'hôpital a obtenu une licence de l'Agence de réglementation des établissements de santé (HeFRA), après avoir satisfait à l'exigence.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_Korle-Bu</t>
+          <t>Hôpital_universitaire_de_Korle-Bu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Services de l'hôpital</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les départements cliniques et diagnostiques de l'hôpital comprennent la médecine, la santé infantile, l'obstétrique et la gynécologie, la pathologie, les laboratoires, la radiologie, l'anesthésie, la chirurgie, la polyclinique, le centre des accidents et l'urgence chirurgicale/médicale ainsi que la pharmacie. Les autres départements comprennent la pharmacie, les finances, l'ingénierie et l'administration générale.
 L'hôpital offre également une spécialisation dans divers domaines tels que la neurochirurgie, la dentisterie, l'ophtalmologie, l'ORL, le rein, l'orthopédie, l'oncologie, la dermatologie, la cardiothoracique, la radiothérapie, le radiodiagnostic, la chirurgie pédiatrique et la chirurgie plastique reconstructive et les brûlures.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_Korle-Bu</t>
+          <t>Hôpital_universitaire_de_Korle-Bu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Capacité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital compte actuellement 2 000 lits et 17 départements/unités cliniques et de diagnostic. Il a une fréquentation quotidienne moyenne de 1 500 patients et environ 250 admissions de patients.
 </t>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_Korle-Bu</t>
+          <t>Hôpital_universitaire_de_Korle-Bu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Établissements</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'hôpital a un très grand campus et s'est agrandi pour accueillir un certain nombre d'institutions. La liste comprend les éléments suivants :
 École de médecine de l'université du Ghana
@@ -668,7 +690,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_Korle-Bu</t>
+          <t>Hôpital_universitaire_de_Korle-Bu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -686,7 +708,9 @@
           <t>Centre national cardio-thoraxique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>L'établissement est connu comme l'un des meilleurs centres de pointe pour les soins cardio-thoraxiques en Afrique de l'Ouest
 L'ensemble du projet a été réalisé par Hospital Engineering GmbH et GerTech GmbH d'Allemagne
@@ -701,7 +725,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_Korle-Bu</t>
+          <t>Hôpital_universitaire_de_Korle-Bu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -719,10 +743,12 @@
           <t>Centres d'excellence</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Centre national cardio-thoraxique[4]
-Centre national de chirurgie plastique et reconstructrice[5]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Centre national cardio-thoraxique
+Centre national de chirurgie plastique et reconstructrice
 Centre de radiothérapie</t>
         </is>
       </c>
@@ -733,7 +759,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_de_Korle-Bu</t>
+          <t>Hôpital_universitaire_de_Korle-Bu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -751,9 +777,11 @@
           <t>Fondation des neurosciences Korle-Bu</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Korle-Bu Neuroscience Foundation (KBNF) est un projet d'aide à l'hôpital universitaire de Korle-Bu[6]. Il a été fondé par Marjorie Ratel, infirmière en neurosciences à Vancouver, Colombie-Britannique, Canada[7]. La KBNF a participé à la fondation du Korle-Bu Neuroscience Center[8].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Korle-Bu Neuroscience Foundation (KBNF) est un projet d'aide à l'hôpital universitaire de Korle-Bu. Il a été fondé par Marjorie Ratel, infirmière en neurosciences à Vancouver, Colombie-Britannique, Canada. La KBNF a participé à la fondation du Korle-Bu Neuroscience Center.
 </t>
         </is>
       </c>
